--- a/DMS/ImportImportUnit.xlsx
+++ b/DMS/ImportImportUnit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Description</t>
   </si>
@@ -32,10 +32,7 @@
     <t>UnitName</t>
   </si>
   <si>
-    <t>Box</t>
-  </si>
-  <si>
-    <t>Piece</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -353,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,14 +378,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DMS/ImportImportUnit.xlsx
+++ b/DMS/ImportImportUnit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YoekiSoft\Desktop\ImportExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YoekiSoft\Desktop\UploadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Description</t>
   </si>
@@ -32,7 +32,64 @@
     <t>UnitName</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Nos.</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Pkt</t>
+  </si>
+  <si>
+    <t>Pcs</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Yds</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Ream</t>
+  </si>
+  <si>
+    <t>sq. ft</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>yd</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>packet</t>
+  </si>
+  <si>
+    <t>UnitCode</t>
   </si>
 </sst>
 </file>
@@ -350,32 +407,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
